--- a/data/01 - base.demande.xlsx
+++ b/data/01 - base.demande.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>x0</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>a4</t>
-  </si>
-  <si>
-    <t>Année</t>
   </si>
   <si>
     <t>INSEE</t>
@@ -149,6 +146,21 @@
   </si>
   <si>
     <t>c2</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Volume de production</t>
+  </si>
+  <si>
+    <t>Consommation en €courants</t>
+  </si>
+  <si>
+    <t>Indice de prix</t>
   </si>
 </sst>
 </file>
@@ -471,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,227 +511,274 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">

--- a/data/01 - base.demande.xlsx
+++ b/data/01 - base.demande.xlsx
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>128.30000000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>4514</v>
+        <v>1560</v>
       </c>
       <c r="O10" s="1">
         <v>96.841999999999999</v>
@@ -869,7 +869,7 @@
         <v>164.3</v>
       </c>
       <c r="N11" s="1">
-        <v>4665</v>
+        <v>1631</v>
       </c>
       <c r="O11" s="1">
         <v>99.152000000000001</v>
@@ -916,7 +916,7 @@
         <v>100</v>
       </c>
       <c r="N12" s="1">
-        <v>4783</v>
+        <v>1651</v>
       </c>
       <c r="O12" s="1">
         <v>100</v>
@@ -963,7 +963,7 @@
         <v>171.3</v>
       </c>
       <c r="N13" s="1">
-        <v>4868</v>
+        <v>1741</v>
       </c>
       <c r="O13" s="1">
         <v>101.813</v>
@@ -1010,7 +1010,7 @@
         <v>164.6</v>
       </c>
       <c r="N14" s="1">
-        <v>4799</v>
+        <v>1789</v>
       </c>
       <c r="O14" s="1">
         <v>105.164</v>
@@ -1057,7 +1057,7 @@
         <v>156.1</v>
       </c>
       <c r="N15" s="1">
-        <v>4662</v>
+        <v>1792</v>
       </c>
       <c r="O15" s="1">
         <v>105.754</v>
@@ -1104,13 +1104,13 @@
         <v>146.4</v>
       </c>
       <c r="N16" s="1">
-        <v>4720</v>
+        <v>1820</v>
       </c>
       <c r="O16" s="1">
         <v>105.11799999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -1151,13 +1151,13 @@
         <v>132.4</v>
       </c>
       <c r="N17" s="1">
-        <v>4679</v>
+        <v>1876</v>
       </c>
       <c r="O17" s="1">
         <v>105.062</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -1172,6 +1172,20 @@
       </c>
       <c r="E18" s="1">
         <v>131.78833333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <v>1789</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1792</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1820</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1876</v>
       </c>
     </row>
   </sheetData>
